--- a/groups/24-25-Univers/tasks_results/25.01.11.xlsx
+++ b/groups/24-25-Univers/tasks_results/25.01.11.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
   <si>
     <t>№</t>
   </si>
@@ -112,6 +112,12 @@
     <t>pchelka12</t>
   </si>
   <si>
+    <t>DanilGoose</t>
+  </si>
+  <si>
+    <t>kjuby</t>
+  </si>
+  <si>
     <t>+</t>
   </si>
   <si>
@@ -154,7 +160,13 @@
     <t>1+, 5-</t>
   </si>
   <si>
+    <t>3-</t>
+  </si>
+  <si>
     <t>708</t>
+  </si>
+  <si>
+    <t>1+, 8-</t>
   </si>
   <si>
     <t>5-</t>
@@ -637,10 +649,10 @@
         <v>30</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>28</v>
@@ -663,7 +675,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -672,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -684,7 +696,7 @@
         <v>3</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -704,7 +716,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -713,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -725,7 +737,7 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -745,120 +757,129 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="F10" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/groups/24-25-Univers/tasks_results/25.01.11.xlsx
+++ b/groups/24-25-Univers/tasks_results/25.01.11.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="51">
   <si>
     <t>№</t>
   </si>
@@ -142,31 +142,28 @@
     <t>194</t>
   </si>
   <si>
+    <t>1+, 3-</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>4-</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>1+, 5-</t>
+  </si>
+  <si>
+    <t>708</t>
+  </si>
+  <si>
+    <t>1+, 8-</t>
+  </si>
+  <si>
     <t>1-</t>
-  </si>
-  <si>
-    <t>1+, 3-</t>
-  </si>
-  <si>
-    <t>206</t>
-  </si>
-  <si>
-    <t>4-</t>
-  </si>
-  <si>
-    <t>450</t>
-  </si>
-  <si>
-    <t>1+, 5-</t>
-  </si>
-  <si>
-    <t>3-</t>
-  </si>
-  <si>
-    <t>708</t>
-  </si>
-  <si>
-    <t>1+, 8-</t>
   </si>
   <si>
     <t>5-</t>
@@ -696,7 +693,7 @@
         <v>3</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -737,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -803,39 +800,39 @@
       <c r="G7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="K7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>36</v>
@@ -846,8 +843,8 @@
       <c r="G9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>47</v>
+      <c r="H9" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>38</v>
@@ -858,28 +855,28 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>38</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="J10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/groups/24-25-Univers/tasks_results/25.01.11.xlsx
+++ b/groups/24-25-Univers/tasks_results/25.01.11.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="53">
   <si>
     <t>№</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>kjuby</t>
+  </si>
+  <si>
+    <t>MaximTreg</t>
+  </si>
+  <si>
+    <t>azzazichka</t>
   </si>
   <si>
     <t>+</t>
@@ -658,10 +664,10 @@
         <v>28</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>28</v>
@@ -672,7 +678,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -713,7 +719,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -754,129 +760,129 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="F10" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
